--- a/Documentatie/showcase uc1,2/Testrapportage.xlsx
+++ b/Documentatie/showcase uc1,2/Testrapportage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fork projecten\ShowCaseWindesheim\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fork projecten\ShowCaseWindesheim\Documentatie\showcase uc1,2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42217D-2341-4201-BB94-38C241386B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D73CE7-C821-443A-80A6-48EC7365528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="898" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="898" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="22" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="FT2" sheetId="23" r:id="rId3"/>
     <sheet name="FT3" sheetId="25" r:id="rId4"/>
     <sheet name="FT4" sheetId="26" r:id="rId5"/>
-    <sheet name="Blad1" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="FT5" sheetId="28" r:id="rId6"/>
+    <sheet name="FT6" sheetId="29" r:id="rId7"/>
+    <sheet name="ST1" sheetId="27" r:id="rId8"/>
+    <sheet name="Blad1" sheetId="12" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="126">
   <si>
     <t>Nummer</t>
   </si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>[acceptatiecriteria]</t>
   </si>
   <si>
     <t>[resultaat]</t>
@@ -231,6 +231,219 @@
   </si>
   <si>
     <t>De GDPR-verklaring verdwijnt van de huidige pagina zodra toestemming niet is gegeven en wordt niet opnieuw weergegeven.</t>
+  </si>
+  <si>
+    <t>URL Token</t>
+  </si>
+  <si>
+    <t>Aanmaak datum: 2025-02-13</t>
+  </si>
+  <si>
+    <t>Evil UserStory</t>
+  </si>
+  <si>
+    <t>Als hacker wil ik tokens verzamelen van de developers om deze voor slechte wil te gebruiken.</t>
+  </si>
+  <si>
+    <t>Timme Kingma: 2025-02-13</t>
+  </si>
+  <si>
+    <t>Geen token zijn traceer baar in zowel de url als in de netwerk tab</t>
+  </si>
+  <si>
+    <t>Home Page Token Test</t>
+  </si>
+  <si>
+    <t>Privacy Page Token Test</t>
+  </si>
+  <si>
+    <t>Contact Page Token Test</t>
+  </si>
+  <si>
+    <t>1. de tester start de applicatie.
+2. de tester gaat naar de home pagina
+3. checkt de url op tokens.
+4. de tester opent developertools (f12)-&gt;network en klikt fetch/XHR aan.
+5. de tester refrecht en checkt voor tokens.</t>
+  </si>
+  <si>
+    <t>1. de tester start de applicatie.
+2. de tester gaat naar de privacy pagina
+3. checkt de url op tokens.
+4. de tester opent developertools (f12)-&gt;network en klikt fetch/XHR aan.
+5. de tester refrecht en checkt voor tokens.</t>
+  </si>
+  <si>
+    <t>1. de tester start de applicatie.
+2. de tester gaat naar de contact pagina
+3. verstuurt een formulier
+4. checkt de url op tokens.
+5. de tester opent developertools (f12)-&gt;network en klikt fetch/XHR aan.
+6. de tester refrecht en checkt voor tokenn en volgt stap 1 t/m 3</t>
+  </si>
+  <si>
+    <t>akoord
+Twijfelend resultaar
+doordat de website gebruik maakt van google captcha bevond de tester een token/key van de captcha.site</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>Formulier velden</t>
+  </si>
+  <si>
+    <t>1. Open de contactpagina. 2. Controleer of de invoervelden voor naam, e-mail, telefoonnummer, onderwerp en bericht aanwezig zijn.</t>
+  </si>
+  <si>
+    <t>Alle velden worden correct weergegeven.</t>
+  </si>
+  <si>
+    <t>Invoer validatie</t>
+  </si>
+  <si>
+    <t>1. Voer ongeldige gegevens in bij elk veld (bijv. te lange tekst, ongeldige e-mail). 2. Klik op verzenden.</t>
+  </si>
+  <si>
+    <t>Er verschijnt een foutmelding en het formulier wordt niet verstuurd.</t>
+  </si>
+  <si>
+    <t>Gegevens niet zichtbaar na versturen</t>
+  </si>
+  <si>
+    <t>1. Vul alle velden correct in en verstuur het formulier. 2. Controleer of de invoervelden worden leeggemaakt na het versturen.</t>
+  </si>
+  <si>
+    <t>De velden zijn leeg na verzending.</t>
+  </si>
+  <si>
+    <t>Feedback aan gebruiker</t>
+  </si>
+  <si>
+    <t>1. Verstuur het formulier met correcte gegevens. 2. Controleer of de gebruiker een bevestigingsbericht ontvangt.</t>
+  </si>
+  <si>
+    <t>Er verschijnt een bevestigingsmelding.</t>
+  </si>
+  <si>
+    <t>Gegevens niet opgeslagen</t>
+  </si>
+  <si>
+    <t>1. Verstuur het formulier en probeer daarna de ingevoerde gegevens terug te halen via inspectie of API-aanvragen.</t>
+  </si>
+  <si>
+    <t>De gegevens worden niet opgeslagen.</t>
+  </si>
+  <si>
+    <t>E-mail naar student-webdeveloper</t>
+  </si>
+  <si>
+    <t>1. Verstuur het formulier met correcte gegevens. 2. Controleer of de student-webdeveloper een e-mail ontvangt met de ingevoerde gegevens.</t>
+  </si>
+  <si>
+    <t>De student-webdeveloper ontvangt een e-mail.</t>
+  </si>
+  <si>
+    <t>CAPTCHA-validatie</t>
+  </si>
+  <si>
+    <t>Het formulier wordt niet verzonden zonder een correct ingevulde CAPTCHA.</t>
+  </si>
+  <si>
+    <t>HTML-beperkingen</t>
+  </si>
+  <si>
+    <t>1. Probeer een script in te voeren in het berichtveld en verstuur het formulier.</t>
+  </si>
+  <si>
+    <t>Het script wordt niet uitgevoerd, maar wordt genegeerd of gefilterd.</t>
+  </si>
+  <si>
+    <t>POST-request en mailservice</t>
+  </si>
+  <si>
+    <t>1. Verstuur het formulier en controleer via de ontwikkelaarstools of er een POST-verzoek wordt uitgevoerd naar de juiste API.</t>
+  </si>
+  <si>
+    <t>Er wordt een POST-verzoek naar de MailController uitgevoerd.</t>
+  </si>
+  <si>
+    <t>Timme Kingma: 2025-13-02</t>
+  </si>
+  <si>
+    <t>Aanmaak datum: 2025-02-12</t>
+  </si>
+  <si>
+    <t>FT5</t>
+  </si>
+  <si>
+    <t>"Als geïnteresseerde wil ik een bericht kunnen sturen aan de student-webdeveloper zodat ik in contact kan komen met de student-webdeveloper."</t>
+  </si>
+  <si>
+    <t>Onderwerp validatie</t>
+  </si>
+  <si>
+    <t>1. Voer een onderwerp in van meer dan 200 tekens. 2. Klik op verzenden.</t>
+  </si>
+  <si>
+    <t>Er verschijnt een foutmelding en het formulier wordt niet verzonden.</t>
+  </si>
+  <si>
+    <t>E-mail validatie</t>
+  </si>
+  <si>
+    <t>1. Voer een ongeldig e-mailadres in (bijv. "test@"). 2. Klik op verzenden.</t>
+  </si>
+  <si>
+    <t>Bericht validatie</t>
+  </si>
+  <si>
+    <t>1. Voer een bericht in van meer dan 600 tekens. 2. Klik op verzenden.</t>
+  </si>
+  <si>
+    <t>Correcte invoer</t>
+  </si>
+  <si>
+    <t>1. Vul alle velden correct in. 2. Klik op verzenden.</t>
+  </si>
+  <si>
+    <t>Het formulier wordt succesvol verzonden zonder foutmeldingen.</t>
+  </si>
+  <si>
+    <t>CAPTCHA validatie</t>
+  </si>
+  <si>
+    <t>1. Probeer het formulier te verzenden zonder de CAPTCHA in te vullen.</t>
+  </si>
+  <si>
+    <t>Het formulier wordt niet verzonden zonder een geldige ReCaptcha.</t>
+  </si>
+  <si>
+    <t>Timme Kingma:2025-02-13</t>
+  </si>
+  <si>
+    <t>FT6</t>
+  </si>
+  <si>
+    <t>Validatie contactformulier</t>
+  </si>
+  <si>
+    <t>"Als geïnteresseerde wil ik een correct ingevuld contactformulier kunnen versturen, zodat ik zeker weet dat mijn bericht goed aankomt."</t>
+  </si>
+  <si>
+    <t>Contactformulier functionaliteit</t>
+  </si>
+  <si>
+    <t>Het formulier wordt niet verzonden zonder een correcte CAPTCHA score.</t>
+  </si>
+  <si>
+    <t>1. Probeer het formulier zonder de CAPTCHA.</t>
+  </si>
+  <si>
+    <t>1. Controleer of er een Google ReCaptcha v3 aanwezig is. 2. Probeer het formulier te verzenden zonder interactie met de ReCaptcha.</t>
+  </si>
+  <si>
+    <t>Geavanceerde CAPTCHA (ReCaptcha v3)</t>
   </si>
 </sst>
 </file>
@@ -311,7 +524,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +539,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -392,19 +611,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="64">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -650,6 +881,153 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -664,75 +1042,120 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAD87524-C640-4B1A-B692-62648EDA0752}" name="Tabel3934" displayName="Tabel3934" ref="B9:G12" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BAD87524-C640-4B1A-B692-62648EDA0752}" name="Tabel3934" displayName="Tabel3934" ref="B9:G12" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="B9:G12" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{515B372D-E434-4562-85E7-895BFB657414}" name="Nummer" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{3BD4A647-0FE4-4113-AFD4-3224B43E637E}" name="Naam" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{B75685A8-C8EA-40EF-B78F-C95335F15DA2}" name="Test" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{33F22F14-4182-4B27-ADA0-76E68B87E4C1}" name="Gewenst resultaat" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{14697DBC-FFD1-419C-A18F-8A7AA1A83981}" name="Resultaat" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{4B5F6EE3-C7E4-4C28-8EFF-89F42E7DBB25}" name="Wie, Wanneer?" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{515B372D-E434-4562-85E7-895BFB657414}" name="Nummer" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{3BD4A647-0FE4-4113-AFD4-3224B43E637E}" name="Naam" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{B75685A8-C8EA-40EF-B78F-C95335F15DA2}" name="Test" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{33F22F14-4182-4B27-ADA0-76E68B87E4C1}" name="Gewenst resultaat" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{14697DBC-FFD1-419C-A18F-8A7AA1A83981}" name="Resultaat" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{4B5F6EE3-C7E4-4C28-8EFF-89F42E7DBB25}" name="Wie, Wanneer?" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}" name="Tabel393" displayName="Tabel393" ref="B9:G14" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}" name="Tabel393" displayName="Tabel393" ref="B9:G14" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B9:G14" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B6440ED5-FAD8-4285-94E7-1B7C6FFBDD6D}" name="Nummer" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{52E518A1-CDC8-4648-B54D-1BD7C3265BB6}" name="Naam" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{2BDDDE9B-11D8-4552-81BE-E528EEC5FC50}" name="Test" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{2827B35C-B0BA-419C-BE89-87ECDA255377}" name="Gewenst resultaat" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{2C5FEE3F-164A-4D79-A182-AC20EA3611A8}" name="Resultaat" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{272C98B4-C059-4ECD-8993-40FAF2741C63}" name="Wie, Wanneer?" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{B6440ED5-FAD8-4285-94E7-1B7C6FFBDD6D}" name="Nummer" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{52E518A1-CDC8-4648-B54D-1BD7C3265BB6}" name="Naam" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{2BDDDE9B-11D8-4552-81BE-E528EEC5FC50}" name="Test" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{2827B35C-B0BA-419C-BE89-87ECDA255377}" name="Gewenst resultaat" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{2C5FEE3F-164A-4D79-A182-AC20EA3611A8}" name="Resultaat" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{272C98B4-C059-4ECD-8993-40FAF2741C63}" name="Wie, Wanneer?" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C193A05E-9B7A-4797-B99D-BEC24AC7BFFC}" name="Tabel3935" displayName="Tabel3935" ref="B9:G12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C193A05E-9B7A-4797-B99D-BEC24AC7BFFC}" name="Tabel3935" displayName="Tabel3935" ref="B9:G12" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B9:G12" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{09466601-E302-4C9F-B45E-A1D2952E74A1}" name="Nummer" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{5EE7A713-583F-4B11-B886-FF126943946F}" name="Naam" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{43407A8F-F9E9-43BA-9E75-006F81251B50}" name="Test" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{F473DC89-5B58-4A29-BB88-EE8EBDB56558}" name="Gewenst resultaat" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{0DD7BF9E-2DCF-4321-AC9D-B1599836F841}" name="Resultaat" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{5B1C9C1C-6146-4796-9563-D95679EF3AD8}" name="Wie, Wanneer?" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{09466601-E302-4C9F-B45E-A1D2952E74A1}" name="Nummer" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{5EE7A713-583F-4B11-B886-FF126943946F}" name="Naam" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{43407A8F-F9E9-43BA-9E75-006F81251B50}" name="Test" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{F473DC89-5B58-4A29-BB88-EE8EBDB56558}" name="Gewenst resultaat" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{0DD7BF9E-2DCF-4321-AC9D-B1599836F841}" name="Resultaat" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{5B1C9C1C-6146-4796-9563-D95679EF3AD8}" name="Wie, Wanneer?" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{68109C5F-DCA1-476E-991C-AFC4E378FBE9}" name="Tabel39356" displayName="Tabel39356" ref="B9:G11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{68109C5F-DCA1-476E-991C-AFC4E378FBE9}" name="Tabel39356" displayName="Tabel39356" ref="B9:G11" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="B9:G11" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8B8027D4-F32C-4793-9ED5-F649EC56D141}" name="Nummer" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C51FA429-AD92-4CE6-A0C6-8F01652651FB}" name="Naam" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{73C67C4B-560A-48E4-A215-8FE72BBAA3DC}" name="Test" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{AB7BC65B-EBEB-43AE-81C2-C9FE824C8D4C}" name="Gewenst resultaat" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{1007B992-A015-4E07-AA44-B085A447F0F0}" name="Resultaat" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{99F22CA9-CC69-4387-A2E4-3B22CC76BDFB}" name="Wie, Wanneer?" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8B8027D4-F32C-4793-9ED5-F649EC56D141}" name="Nummer" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C51FA429-AD92-4CE6-A0C6-8F01652651FB}" name="Naam" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{73C67C4B-560A-48E4-A215-8FE72BBAA3DC}" name="Test" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{AB7BC65B-EBEB-43AE-81C2-C9FE824C8D4C}" name="Gewenst resultaat" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{1007B992-A015-4E07-AA44-B085A447F0F0}" name="Resultaat" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{99F22CA9-CC69-4387-A2E4-3B22CC76BDFB}" name="Wie, Wanneer?" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CF7FCF9-0505-4023-BDC6-5BBCF0C9A8E0}" name="Tabel39357" displayName="Tabel39357" ref="B9:G14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CF7FCF9-0505-4023-BDC6-5BBCF0C9A8E0}" name="Tabel39357" displayName="Tabel39357" ref="B9:G14" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B9:G14" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2D2BB3DE-DFFA-4B38-9BBD-3576B091B6AC}" name="Nummer" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5387B3C1-ECF5-4C65-8811-FA89E06421E0}" name="Naam" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E7E9BDD5-6670-488A-AD47-82A8A6DBC3ED}" name="Test" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9C071035-70B8-447A-97C4-0551E274EC13}" name="Gewenst resultaat" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{1388DE8C-1450-4F74-A503-6E3E5AA62456}" name="Resultaat" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{5FC23039-6215-46D0-B49F-3DEB7CE0C510}" name="Wie, Wanneer?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2D2BB3DE-DFFA-4B38-9BBD-3576B091B6AC}" name="Nummer" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5387B3C1-ECF5-4C65-8811-FA89E06421E0}" name="Naam" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{E7E9BDD5-6670-488A-AD47-82A8A6DBC3ED}" name="Test" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{9C071035-70B8-447A-97C4-0551E274EC13}" name="Gewenst resultaat" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{1388DE8C-1450-4F74-A503-6E3E5AA62456}" name="Resultaat" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{5FC23039-6215-46D0-B49F-3DEB7CE0C510}" name="Wie, Wanneer?" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F2A1F04E-7375-4708-AFD9-C5D3807D8AE8}" name="Tabel39348" displayName="Tabel39348" ref="B9:G19" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B9:G19" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{69EC2E1E-17DD-4626-8571-C9D3406AD57D}" name="Nummer" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{C5CD3ADE-2EB6-466D-80E1-EFDEFA11B471}" name="Naam" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0A3B459B-90C3-4612-80B9-6CF3C7A34528}" name="Test" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{8F8BB5F4-B933-48BF-9907-3E6713588761}" name="Gewenst resultaat" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{7AC3F020-7AFC-4084-BA3B-07930CAF0F38}" name="Resultaat" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{CE6A920C-8355-48CA-B52E-CC42911D63FA}" name="Wie, Wanneer?" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{000C4900-153E-41B9-AE27-15E9061E9D3D}" name="Tabel39349" displayName="Tabel39349" ref="B9:G16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B9:G16" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EB0A6E97-954D-4677-B051-BEB15871B96A}" name="Nummer" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D1835EA5-A8B8-41E4-BE35-9AEFFD52D3F1}" name="Naam" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6D70C212-2FB8-4E4B-9038-A38B4F6D2E8E}" name="Test" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A8D0F6A4-1692-4EDC-95F6-FD2733D8DFAE}" name="Gewenst resultaat" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{5F40F74C-7D2C-430D-A580-8A7EB7A9BCFE}" name="Resultaat" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{8C95942E-AF29-4060-B185-9C3809F80D88}" name="Wie, Wanneer?" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66E5E452-8DCB-4FF5-9251-B580C2871A58}" name="Tabel39342" displayName="Tabel39342" ref="B9:G13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B9:G13" xr:uid="{2A969E9E-D1D9-466C-B195-07B6962BC4F4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{44FF7830-482F-487A-A2B0-4674A0D6A3C6}" name="Nummer" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{734E1D24-F856-4CF7-9943-A9FA163CDD7A}" name="Naam" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5048695F-29C9-4C68-B733-4EC8C5E87DDB}" name="Test" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{14CD1503-B53C-42DF-A23B-E634A9859355}" name="Gewenst resultaat" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{71E3D53E-BD26-435B-AE01-CF18398C3A38}" name="Resultaat" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{5EB95B24-0B87-4BA0-82C9-15E34BE2C7DE}" name="Wie, Wanneer?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1058,146 +1481,6 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745FEE56-CDA0-4E78-96F2-17AAE0F80FED}">
-  <dimension ref="A2:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1213,7 +1496,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>18</v>
@@ -1221,12 +1504,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1234,7 +1517,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1242,7 +1525,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1286,19 +1569,159 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745FEE56-CDA0-4E78-96F2-17AAE0F80FED}">
+  <dimension ref="A2:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1306,19 +1729,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1326,19 +1749,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1346,19 +1769,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1366,19 +1789,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
@@ -1412,20 +1835,20 @@
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1433,7 +1856,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1441,7 +1864,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1485,19 +1908,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1505,19 +1928,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1525,19 +1948,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1568,20 +1991,20 @@
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1589,7 +2012,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1597,7 +2020,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1641,19 +2064,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -1661,19 +2084,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1688,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F18D44-83CD-4E8C-938A-0D2DBADBAF68}">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,20 +2127,20 @@
   <sheetData>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1725,7 +2148,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1733,7 +2156,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1777,19 +2200,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -1797,19 +2220,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -1817,19 +2240,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -1837,19 +2260,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -1857,19 +2280,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1881,6 +2304,714 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A1C2D-0565-4C7D-958C-8425450BF265}">
+  <dimension ref="A2:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82419012-26BD-48D1-B630-4C8C6B4263A3}">
+  <dimension ref="A2:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F398AC-77C2-4D51-91F3-FC76E52F9CCA}">
+  <dimension ref="A2:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26A9D6E-35AD-4D63-B415-4B714781CDA3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1893,11 +3024,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description xmlns="3ee6f9d5-5d76-4bac-8eac-d6fc180f2ef0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2071,26 +3203,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description xmlns="3ee6f9d5-5d76-4bac-8eac-d6fc180f2ef0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4880EEC1-BBD7-44E3-B88E-3F8B6E4501C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0268DA9-E87D-4592-9E3C-8130E30D651F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3ee6f9d5-5d76-4bac-8eac-d6fc180f2ef0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2114,9 +3237,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0268DA9-E87D-4592-9E3C-8130E30D651F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4880EEC1-BBD7-44E3-B88E-3F8B6E4501C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3ee6f9d5-5d76-4bac-8eac-d6fc180f2ef0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>